--- a/src/main/resources/xlsx/party_stat_template.xlsx
+++ b/src/main/resources/xlsx/party_stat_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>分党委名称</t>
   </si>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>北京师范大学各分党委、党总支、直属党支部基本情况表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>硕士生</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -107,6 +103,22 @@
   <si>
     <t>学生党员数
 （正式党员）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>school各分党委、党总支、直属党支部基本情况表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请入党人数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教职工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -271,13 +283,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,12 +326,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -333,6 +354,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -623,38 +647,40 @@
     <col min="27" max="27" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -689,7 +715,7 @@
         <v>6</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
@@ -702,26 +728,30 @@
       <c r="AA2" s="15" t="s">
         <v>19</v>
       </c>
+      <c r="AB2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="10"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" s="2" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>11</v>
@@ -777,8 +807,14 @@
         <v>11</v>
       </c>
       <c r="AA3" s="16"/>
+      <c r="AB3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -806,10 +842,13 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="8"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:AA1"/>
+  <mergeCells count="12">
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="A1:AC1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:O2"/>
